--- a/getOrder/WBOrdersData/DEBUG_ФБС без принтов 04.12.2021 ч1.xlsx
+++ b/getOrder/WBOrdersData/DEBUG_ФБС без принтов 04.12.2021 ч1.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WB Чехол для Samsung Galaxy A12 силикон с закрытой камерой зелено-белый Pop it (3)</t>
+          <t>Планка для магнитного держателя (круглая + прямоугольник)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00-0109310</t>
+          <t>00-00096243</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2001587770148</t>
+          <t>2001147211845</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -489,12 +489,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00-00097750Зеленый-белый_Pop_it</t>
+          <t>00-00096243Черный</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>138477300</t>
+          <t>138561310</t>
         </is>
       </c>
     </row>
@@ -533,17 +533,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Чехол для Honor 50 (Nova 9) вертикальная кобура на пояс (на ремень) (не стекло)</t>
+          <t>Чехол для AirTag черный</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00-00014074</t>
+          <t>00-0099046</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2014879342008</t>
+          <t>2003253988048</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,29 +553,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Honor_50_вертикальная_кобураЧерный</t>
+          <t>AirTagЧерныйПодКожу</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>138200815</t>
+          <t>138558605</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Чехол для Realme C21Y силикон с закрытой камерой с усиленными углами прозрачный</t>
+          <t>Чехол для AirTag черный</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00-0128275</t>
+          <t>00-0099046</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2008965272720</t>
+          <t>2003253988048</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,29 +585,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Realme_C21Y_силПрозрачныйСусиленнымиУглами</t>
+          <t>AirTagЧерныйПодКожу</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>138453488</t>
+          <t>138558615</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Чехол для Realme C21Y силикон с закрытой камерой с усиленными углами прозрачный</t>
+          <t>Чехол для Honor 50 (Nova 9) вертикальная кобура на пояс (на ремень) (не стекло)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00-0128275</t>
+          <t>00-00014074</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2008965272720</t>
+          <t>2014879342008</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -617,29 +617,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Realme_C21Y_силПрозрачныйСусиленнымиУглами</t>
+          <t>Honor_50_вертикальная_кобураЧерный</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>138482948</t>
+          <t>138200815</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Чехол для Realme C21Y силикон с закрытой камерой черный матовый</t>
+          <t>Чехол для Realme C21 силикон с закрытой камерой светло-фиолетовый матовый</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00-0124515</t>
+          <t>00-0099059</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2008965273598</t>
+          <t>2003222143003</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -649,29 +649,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Realme_C21Y_силЧерныйМатовый</t>
+          <t>00-00098250матовый_светло-фиолетовый</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>138502223</t>
+          <t>138562987</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Чехол для Realme C21Y силикон с открытой камерой прозрачный</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой голубой матовый</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00-0120200</t>
+          <t>00-0124518</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2001613524059</t>
+          <t>2008965273574</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -681,29 +681,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Realme_C21Y_силПрозрачный</t>
+          <t>Realme_C21Y_силГолубойМатовый</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>138441995</t>
+          <t>138560776</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Чехол для Realme C3 силикон с открытой камерой прозрачный</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой красный матовый</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00-00083464</t>
+          <t>00-0124489</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2001126200297</t>
+          <t>2008895963019</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -713,29 +713,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>00-00083464Прозрачный</t>
+          <t>Realme_C21Y_силКрасныйМатовый</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>138439222</t>
+          <t>138577374</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A03s силикон с закрытой камерой прозрачный</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой светло-зеленый матовый</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00-0111909</t>
+          <t>00-0124520</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2001256753199</t>
+          <t>2008965273543</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -745,29 +745,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Samsung_A03S_1Прозрачный</t>
+          <t>Realme_C21Y_силСветло-зеленыйМатовый</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>138463858</t>
+          <t>138548574</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A03s силикон с закрытой камерой черный матовый</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой светло-фиолетовый матовый</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00-0123472</t>
+          <t>00-0124490</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2005454746533</t>
+          <t>2008895963002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -777,29 +777,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Samsung_A03S_1ЧерныйМатовый</t>
+          <t>Realme_C21Y_силСветло-фиолетовыйМатовый</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>138475096</t>
+          <t>138553583</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой темно-синий матовый</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00-0109073</t>
+          <t>00-0124516</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2001587770179</t>
+          <t>2008965273581</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -809,29 +809,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>00-00097750Оранжево-белый_pop_it_4</t>
+          <t>Realme_C21Y_силТемно-синийМатовый</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>138269533</t>
+          <t>138574551</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой темно-синий матовый</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00-0109073</t>
+          <t>00-0124516</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2001587770179</t>
+          <t>2008965273581</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -841,29 +841,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>00-00097750Оранжево-белый_pop_it_4</t>
+          <t>Realme_C21Y_силТемно-синийМатовый</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>137952916</t>
+          <t>138564712</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой черный матовый</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00-0109073</t>
+          <t>00-0124515</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2001587770179</t>
+          <t>2008965273598</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -873,29 +873,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>00-00097750Оранжево-белый_pop_it_4</t>
+          <t>Realme_C21Y_силЧерныйМатовый</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>138004201</t>
+          <t>138572636</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой черный матовый</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00-0109073</t>
+          <t>00-0124515</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2001587770179</t>
+          <t>2008965273598</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -905,29 +905,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00-00097750Оранжево-белый_pop_it_4</t>
+          <t>Realme_C21Y_силЧерныйМатовый</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>138070918</t>
+          <t>138584946</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
+          <t>Чехол для Samsung Galaxy A02S силикон фиолетово-бежевый Pop it (2)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00-0109073</t>
+          <t>00-0109116</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2001587770179</t>
+          <t>2004626337050</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -937,29 +937,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00-00097750Оранжево-белый_pop_it_4</t>
+          <t>00-00097847фиолетово-бежевый_Pop_it</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>138263486</t>
+          <t>138574692</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон розово-сиреневый Pop it (8)</t>
+          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00-0100653</t>
+          <t>00-0109073</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2001587770131</t>
+          <t>2001587770179</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -969,29 +969,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00-00097750розово-сиреневый_Pop_it_7</t>
+          <t>00-00097750Оранжево-белый_pop_it_4</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>138448373</t>
+          <t>138269533</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон розово-сиреневый Pop it (8)</t>
+          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>00-0100653</t>
+          <t>00-0109073</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2001587770131</t>
+          <t>2001587770179</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1001,29 +1001,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>00-00097750розово-сиреневый_Pop_it_7</t>
+          <t>00-00097750Оранжево-белый_pop_it_4</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>138487504</t>
+          <t>138070918</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон розово-сиреневый Pop it (8)</t>
+          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>00-0100653</t>
+          <t>00-0109073</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2001587770131</t>
+          <t>2001587770179</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1033,29 +1033,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>00-00097750розово-сиреневый_Pop_it_7</t>
+          <t>00-00097750Оранжево-белый_pop_it_4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>138497011</t>
+          <t>138263486</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон розово-сиреневый Pop it (8)</t>
+          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>00-0100653</t>
+          <t>00-0109073</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2001587770131</t>
+          <t>2001587770179</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1065,29 +1065,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>00-00097750розово-сиреневый_Pop_it_7</t>
+          <t>00-00097750Оранжево-белый_pop_it_4</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>138484123</t>
+          <t>138004201</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон сине-зеленый Pop it (7)</t>
+          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>00-0100652</t>
+          <t>00-0109073</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2001587770162</t>
+          <t>2001587770179</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1097,29 +1097,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>00-00097750сине-зеленый_Pop_it_2</t>
+          <t>00-00097750Оранжево-белый_pop_it_4</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>138493115</t>
+          <t>137952916</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон сине-зеленый Pop it (7)</t>
+          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>00-0100652</t>
+          <t>00-0109073</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2001587770162</t>
+          <t>2001587770179</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1129,29 +1129,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>00-00097750сине-зеленый_Pop_it_2</t>
+          <t>00-00097750Оранжево-белый_pop_it_4</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>138492184</t>
+          <t>138559658</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон фиолетово-бежевый Pop it (2)</t>
+          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>00-0100654</t>
+          <t>00-0109073</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2001587770155</t>
+          <t>2001587770179</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1161,29 +1161,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>00-00097750фиолетово-бежевый_Pop_it_8</t>
+          <t>00-00097750Оранжево-белый_pop_it_4</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>138443319</t>
+          <t>138525840</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чехол для Samsung Galaxy A22 силикон прозрачный </t>
+          <t>Чехол для Samsung Galaxy A12 силикон розово-сиреневый Pop it (8)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>00-0099084</t>
+          <t>00-0100653</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2003442064058</t>
+          <t>2001587770131</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1193,29 +1193,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Samsung_A2200_Прозрачный</t>
+          <t>00-00097750розово-сиреневый_Pop_it_7</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>138440560</t>
+          <t>138550289</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон с закрытой камерой голубой матовый</t>
+          <t>Чехол для Samsung Galaxy A12 силикон розово-сиреневый Pop it (8)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>00-0099081</t>
+          <t>00-0100653</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2003442064089</t>
+          <t>2001587770131</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1225,29 +1225,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Samsung_A2204_голубой_матовый</t>
+          <t>00-00097750розово-сиреневый_Pop_it_7</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>138444235</t>
+          <t>138565165</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон с закрытой камерой красный матовый</t>
+          <t>Чехол для Samsung Galaxy A12 силикон розово-сиреневый Pop it (8)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>00-0099078</t>
+          <t>00-0100653</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2003442064065</t>
+          <t>2001587770131</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1257,29 +1257,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Samsung_A2205_красный_матовый</t>
+          <t>00-00097750розово-сиреневый_Pop_it_7</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>138485088</t>
+          <t>138558552</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон с закрытой камерой светло-розовый матовый</t>
+          <t>Чехол для Samsung Galaxy A12 силикон с открытой камерой светло-розовый матовый</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>00-0099079</t>
+          <t>00-00097754</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2003442064034</t>
+          <t>2005075470053</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1289,29 +1289,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Samsung_A2207_светло-розовый_матовый</t>
+          <t>00-00097750РозовыйМатовыйСОткрытойКамерой</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>138468551</t>
+          <t>138557367</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон с закрытой камерой темно-синий матовый</t>
+          <t>Чехол для Samsung Galaxy A12 силикон с открытой камерой черный матовый</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>00-0099077</t>
+          <t>00-0111116</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2003442064010</t>
+          <t>2005520352309</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1321,29 +1321,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Samsung_A2210_темно-синий_матовый</t>
+          <t>00-00097750Черный_матовый</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>138472903</t>
+          <t>138557368</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон фиолетово-бежевый Pop it (2)</t>
+          <t>Чехол для Samsung Galaxy A12 силикон фиолетово-бежевый Pop it (2)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>00-0109011</t>
+          <t>00-0100654</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2005148467003</t>
+          <t>2001587770155</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1353,29 +1353,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Samsung_A22фиолетово-бежевый_pop-it</t>
+          <t>00-00097750фиолетово-бежевый_Pop_it_8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>138449834</t>
+          <t>138559668</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон черный карбон</t>
+          <t>Чехол для Samsung Galaxy A12 силикон фиолетово-бежевый Pop it (2)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>00-0109169</t>
+          <t>00-0100654</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2004672327005</t>
+          <t>2001587770155</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1385,29 +1385,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Samsung_A2202_черныйКарбон</t>
+          <t>00-00097750фиолетово-бежевый_Pop_it_8</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>138447508</t>
+          <t>138551543</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A52 (2021) силикон оранжево-белый Pop it (4)</t>
+          <t xml:space="preserve">Чехол для Samsung Galaxy A22 силикон с открытой камерой фиолетовый блестки </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>00-0109112</t>
+          <t>00-0109462</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2001862362044</t>
+          <t>2005482277009</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1417,29 +1417,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>00-00098430оранжево-белый_pop_it</t>
+          <t>Samsung_A22_блестки_фиолетовый_блестки</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>138463088</t>
+          <t>138571833</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон зеленый плетеный</t>
+          <t>Чехол для Samsung Galaxy A22S 5G Soft-touch розовый Original-Case Full</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>00-0109097</t>
+          <t xml:space="preserve">00-0159555 </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2004566622001</t>
+          <t>2008965265357</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1449,29 +1449,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WB_Samsung_M3206_зеленый_плетеный</t>
+          <t>Samsung_A22s_микрофибраРозовый</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>138444077</t>
+          <t>138583909</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон прозрачный</t>
+          <t>Чехол для Samsung Galaxy A32 (2021) силикон с закрытой камерой светло-фиолетовый матовый</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>00-0106153</t>
+          <t>00-0120222</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2003907476082</t>
+          <t>2005454746823</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1481,29 +1481,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Samsung_M3200_Прозрачный</t>
+          <t>Samsung_A32_матовыеФиолетовыйМатовый</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>138445289</t>
+          <t>138558749</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон светло-фиолетовый матовый</t>
+          <t>Чехол для Samsung Galaxy A52 (2021) силикон оранжево-белый Pop it (4)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>00-0106156</t>
+          <t>00-0109112</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2003907476013</t>
+          <t>2001862362044</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1513,29 +1513,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Samsung_M3208_светло-фиолетовый_матовый</t>
+          <t>00-00098430оранжево-белый_pop_it</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>138464752</t>
+          <t>138463088</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон серый противоударный Armor Case</t>
+          <t>Чехол для Samsung Galaxy M32 силикон прозрачный</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>00-0111271</t>
+          <t>00-0106153</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2006897808000</t>
+          <t>2003907476082</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1545,29 +1545,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Samsung_M32_24СерыйСКольцомSkinShell</t>
+          <t>Samsung_M3200_Прозрачный</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>138502431</t>
+          <t>138565887</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон темно-синий матовый</t>
+          <t>Чехол для Samsung Galaxy M32 силикон черный противоударный Armor Case</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>00-0106157</t>
+          <t>00-0109258</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2003907476006</t>
+          <t>2004973642012</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1577,29 +1577,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Samsung_M3210_темно-синий_матовый</t>
+          <t>Samsung_M32_24ЧерныйСКольцомArmorCase</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>138458692</t>
+          <t>138583583</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M52 силикон с закрытой камерой светло-зеленый матовый</t>
+          <t>Чехол для Samsung Galaxy M52 Soft-touch черный Original-Case Full</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">00-0151857 </t>
+          <t xml:space="preserve">00-0158445 </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2008965265982</t>
+          <t>2008965265661</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Samsung_M52_прозЗеленыйМатовый</t>
+          <t>Samsung_M52_накладка_DFЧерный</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>138483933</t>
+          <t>138585657</t>
         </is>
       </c>
     </row>
@@ -1646,24 +1646,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>138460060</t>
+          <t>138558281</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M52 силикон с открытой камерой прозрачный</t>
+          <t>Чехол для iPhone 13 Pro Max силикон с открытой камерой розовый матовый</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>00-0145264</t>
+          <t>00-0124453</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2008965266200</t>
+          <t>2008965273642</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1673,29 +1673,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Samsung_M52_прозПрозрачный</t>
+          <t>iPhone_13_Pro_Max_1РозовыйМатовый</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>138446542</t>
+          <t>138579714</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M52 силикон с открытой камерой прозрачный</t>
+          <t>Чехол для iPhone 13 mini силикон с открытой камерой черный матовый</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>00-0145264</t>
+          <t>00-0124456</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2008965266200</t>
+          <t>2008965340047</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1705,29 +1705,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Samsung_M52_прозПрозрачный</t>
+          <t>iPhone_13_mini_1ЧерныйМатовый</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>138458914</t>
+          <t>138552203</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy S20 Fe силикон с открытой камерой черный матовый</t>
+          <t>Чехол для iPhone 13 силикон с открытой камерой прозрачный 1,5мм</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>00-00097768</t>
+          <t>00-0120205</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2001587770001</t>
+          <t>2001276671183</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1737,29 +1737,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>00-00097760черныйМатовый</t>
+          <t>iPhone_13_1Прозрачный</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>138463744</t>
+          <t>138585734</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy Z Flip 3 пластик с открытой камерой прозрачный с синей окантовкой</t>
+          <t>Чехол книга для Honor 50/ Huawei Nova 9 синий с силиконовым основанием DF</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>00-0128277</t>
+          <t xml:space="preserve">00-0158499 </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2008965272706</t>
+          <t>2008965265623</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1769,29 +1769,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Samsung_Z_Flip3_прозрачный_с_кантомССинейОкантовкой</t>
+          <t>Honor_50_книжкиСинийDF</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>138475036</t>
+          <t>138567262</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Чехол для Vivo Y31 силикон с закрытой камерой голубой матовый</t>
+          <t>Чехол книга для Honor 50/ Huawei Nova 9 синий с силиконовым основанием DF</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>00-0109455</t>
+          <t xml:space="preserve">00-0158499 </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2005520352552</t>
+          <t>2008965265623</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1801,29 +1801,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>00-00098583голубойМатовый</t>
+          <t>Honor_50_книжкиСинийDF</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>138462355</t>
+          <t>138580229</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Чехол для Xiaomi Poco F3 (Redmi K40) силикон с закрытой камерой голубой матовый</t>
+          <t>Чехол книга для Realme C21 красный с силиконовым основанием Fashion</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>00-0109446</t>
+          <t>00-0103340</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2005520352477</t>
+          <t>2003970653793</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1833,29 +1833,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>00-0098722ГолубойМатовый</t>
+          <t>00-00098665красныйFashion</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>138454594</t>
+          <t>138570946</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Чехол для Xiaomi Redmi 9C силикон с открытой камерой прозрачный</t>
+          <t>Чехол книга для Realme C21 черный с силиконовым основанием Fashion</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>00-00043238</t>
+          <t>00-00098665</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2001147211968</t>
+          <t>2002222680105</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1865,29 +1865,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>00-00043238Прозрачный</t>
+          <t>00-00098665книжкачерныйFashion</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>138470053</t>
+          <t>138561696</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Чехол для Xiaomi Redmi 9C силикон с открытой камерой прозрачный</t>
+          <t>Чехол книга для Samsung Galaxy A03S черный с силиконовым основанием Fashion</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>00-00043238</t>
+          <t>00-0120226</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2001147211968</t>
+          <t>2005454747424</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1897,29 +1897,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>00-00043238Прозрачный</t>
+          <t>Samsung_A03s_КнижкаЧерныйFashion</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>138475680</t>
+          <t>138562994</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Чехол для iPhone 13 mini силикон с открытой камерой синий матовый</t>
+          <t>Чехол книга для Samsung Galaxy M32 (2021) красный с силиконовым основанием Fashion</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>00-0124457</t>
+          <t>00-0109356</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2008965340030</t>
+          <t>2005074712017</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1929,29 +1929,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>iPhone_13_mini_1СинийМатовый</t>
+          <t>Samsung_M32_FashionкрасныйFashion</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>138473277</t>
+          <t>138558216</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Чехол для iPhone 13 силикон с открытой камерой прозрачный 1,5мм</t>
+          <t>Чехол книга для Samsung Galaxy M32 (2021) черный с силиконовым основанием Mobi711</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>00-0120205</t>
+          <t>00-0109235</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2001276671183</t>
+          <t>2004863458006</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1961,524 +1961,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>iPhone_13_1Прозрачный</t>
+          <t>Samsung_M32_книжкичерный_книжкаDF</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>138474524</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Чехол для iPhone 13 силикон с открытой камерой прозрачный 1,5мм</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>00-0120205</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2001276671183</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>iPhone_13_1Прозрачный</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>138440626</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Чехол книга для Honor 50/ Huawei Nova 9 синий с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00-0158499 </t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2008965265623</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Honor_50_книжкиСинийDF</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>138453255</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Чехол книга для Honor 50/ Huawei Nova 9 синий с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00-0158499 </t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2008965265623</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Honor_50_книжкиСинийDF</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>138467062</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Чехол книга для Honor 50/ Huawei Nova 9 синий с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00-0158499 </t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2008965265623</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Honor_50_книжкиСинийDF</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>138474079</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Чехол книга для Honor 50/ Huawei Nova 9 синий с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">00-0158499 </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2008965265623</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Honor_50_книжкиСинийDF</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>138479397</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Чехол книга для OPPO A54 синий с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>00-0099131</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2003009773027</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Oppo_a54_книжка_DFсиний_книжка_DF</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>138491452</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Чехол книга для OPPO A54 черный с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>00-0099130</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2003009773034</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Oppo_a54_книжка_DFчерный_книжка_DF</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>138469424</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Чехол книга для OPPO A54 черный с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>00-0099130</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2003009773034</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Oppo_a54_книжка_DFчерный_книжка_DF</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>138467769</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 голубой с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>00-0103339</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2003970653786</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>00-00098665голубойFashion</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>138487435</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 зеленый с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>00-0111197</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2005454747530</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>00-00098665ЗеленыйFashion</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>138448096</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 золотой с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>00-0111194</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2005454747561</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>00-00098665ЗолотойFashion</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>138482881</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 синий с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>00-00098666</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2002222680099</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>00-00098665книжкасинийDF</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>138447721</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 черный с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>00-00098665</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2002222680105</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>00-00098665книжкачерныйFashion</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>138440730</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Чехол книга для Samsung Galaxy M32 (2021) темно-синий с силиконовым основанием Mobi711</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>00-0109236</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2004863548004</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Samsung_M32_книжкисиний_книжкаDF</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>138488718</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Чехол книга для Samsung Galaxy M52 синий с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>00-0152500</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2008965265890</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Samsung_M52_книжкиСинийDF</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>138452418</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Чехол книга для Samsung Galaxy M52 черный с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>00-0152493</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2008965265968</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Samsung_M52_книжкиЧерныйDF</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>138495156</t>
+          <t>138561850</t>
         </is>
       </c>
     </row>
@@ -2493,7 +1981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2521,12 +2009,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WB Чехол для Samsung Galaxy A12 силикон с закрытой камерой зелено-белый Pop it (3)</t>
+          <t>Планка для магнитного держателя (круглая + прямоугольник)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2001587770148</t>
+          <t>2001147211845</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2551,42 +2039,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Чехол для Honor 50 (Nova 9) вертикальная кобура на пояс (на ремень) (не стекло)</t>
+          <t>Чехол для AirTag черный</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2014879342008</t>
+          <t>2003253988048</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Чехол для Realme C21Y силикон с закрытой камерой с усиленными углами прозрачный</t>
+          <t>Чехол для Honor 50 (Nova 9) вертикальная кобура на пояс (на ремень) (не стекло)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2008965272720</t>
+          <t>2014879342008</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Чехол для Realme C21Y силикон с закрытой камерой черный матовый</t>
+          <t>Чехол для Realme C21 силикон с закрытой камерой светло-фиолетовый матовый</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2008965273598</t>
+          <t>2003222143003</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2596,12 +2084,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Чехол для Realme C21Y силикон с открытой камерой прозрачный</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой голубой матовый</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2001613524059</t>
+          <t>2008965273574</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2611,12 +2099,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Чехол для Realme C3 силикон с открытой камерой прозрачный</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой красный матовый</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2001126200297</t>
+          <t>2008895963019</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2626,12 +2114,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A03s силикон с закрытой камерой прозрачный</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой светло-зеленый матовый</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2001256753199</t>
+          <t>2008965273543</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2641,12 +2129,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A03s силикон с закрытой камерой черный матовый</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой светло-фиолетовый матовый</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2005454746533</t>
+          <t>2008895963002</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2656,87 +2144,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой темно-синий матовый</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2001587770179</t>
+          <t>2008965273581</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон розово-сиреневый Pop it (8)</t>
+          <t>Чехол для Realme C21Y силикон с закрытой камерой черный матовый</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2001587770131</t>
+          <t>2008965273598</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон сине-зеленый Pop it (7)</t>
+          <t>Чехол для Samsung Galaxy A02S силикон фиолетово-бежевый Pop it (2)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2001587770162</t>
+          <t>2004626337050</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A12 силикон фиолетово-бежевый Pop it (2)</t>
+          <t>Чехол для Samsung Galaxy A12 силикон оранжево-белый Pop it (4)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2001587770155</t>
+          <t>2001587770179</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чехол для Samsung Galaxy A22 силикон прозрачный </t>
+          <t>Чехол для Samsung Galaxy A12 силикон розово-сиреневый Pop it (8)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2003442064058</t>
+          <t>2001587770131</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон с закрытой камерой голубой матовый</t>
+          <t>Чехол для Samsung Galaxy A12 силикон с открытой камерой светло-розовый матовый</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2003442064089</t>
+          <t>2005075470053</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2746,12 +2234,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон с закрытой камерой красный матовый</t>
+          <t>Чехол для Samsung Galaxy A12 силикон с открытой камерой черный матовый</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2003442064065</t>
+          <t>2005520352309</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2761,27 +2249,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон с закрытой камерой светло-розовый матовый</t>
+          <t>Чехол для Samsung Galaxy A12 силикон фиолетово-бежевый Pop it (2)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2003442064034</t>
+          <t>2001587770155</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон с закрытой камерой темно-синий матовый</t>
+          <t xml:space="preserve">Чехол для Samsung Galaxy A22 силикон с открытой камерой фиолетовый блестки </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2003442064010</t>
+          <t>2005482277009</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2791,12 +2279,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон фиолетово-бежевый Pop it (2)</t>
+          <t>Чехол для Samsung Galaxy A22S 5G Soft-touch розовый Original-Case Full</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2005148467003</t>
+          <t>2008965265357</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2806,12 +2294,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy A22 силикон черный карбон</t>
+          <t>Чехол для Samsung Galaxy A32 (2021) силикон с закрытой камерой светло-фиолетовый матовый</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2004672327005</t>
+          <t>2005454746823</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2836,12 +2324,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон зеленый плетеный</t>
+          <t>Чехол для Samsung Galaxy M32 силикон прозрачный</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2004566622001</t>
+          <t>2003907476082</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2851,12 +2339,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон прозрачный</t>
+          <t>Чехол для Samsung Galaxy M32 силикон черный противоударный Armor Case</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2003907476082</t>
+          <t>2004973642012</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2866,12 +2354,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон светло-фиолетовый матовый</t>
+          <t>Чехол для Samsung Galaxy M52 Soft-touch черный Original-Case Full</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2003907476013</t>
+          <t>2008965265661</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2881,12 +2369,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон серый противоударный Armor Case</t>
+          <t>Чехол для Samsung Galaxy M52 силикон с открытой камерой прозрачный</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2006897808000</t>
+          <t>2008965266200</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2896,12 +2384,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M32 силикон темно-синий матовый</t>
+          <t>Чехол для iPhone 13 Pro Max силикон с открытой камерой розовый матовый</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2003907476006</t>
+          <t>2008965273642</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2911,12 +2399,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M52 силикон с закрытой камерой светло-зеленый матовый</t>
+          <t>Чехол для iPhone 13 mini силикон с открытой камерой черный матовый</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2008965265982</t>
+          <t>2008965340047</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2926,42 +2414,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy M52 силикон с открытой камерой прозрачный</t>
+          <t>Чехол для iPhone 13 силикон с открытой камерой прозрачный 1,5мм</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2008965266200</t>
+          <t>2001276671183</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy S20 Fe силикон с открытой камерой черный матовый</t>
+          <t>Чехол книга для Honor 50/ Huawei Nova 9 синий с силиконовым основанием DF</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2001587770001</t>
+          <t>2008965265623</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Чехол для Samsung Galaxy Z Flip 3 пластик с открытой камерой прозрачный с синей окантовкой</t>
+          <t>Чехол книга для Realme C21 красный с силиконовым основанием Fashion</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2008965272706</t>
+          <t>2003970653793</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2971,12 +2459,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Чехол для Vivo Y31 силикон с закрытой камерой голубой матовый</t>
+          <t>Чехол книга для Realme C21 черный с силиконовым основанием Fashion</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2005520352552</t>
+          <t>2002222680105</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2986,12 +2474,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Чехол для Xiaomi Poco F3 (Redmi K40) силикон с закрытой камерой голубой матовый</t>
+          <t>Чехол книга для Samsung Galaxy A03S черный с силиконовым основанием Fashion</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2005520352477</t>
+          <t>2005454747424</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3001,210 +2489,30 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Чехол для Xiaomi Redmi 9C силикон с открытой камерой прозрачный</t>
+          <t>Чехол книга для Samsung Galaxy M32 (2021) красный с силиконовым основанием Fashion</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2001147211968</t>
+          <t>2005074712017</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Чехол для iPhone 13 mini силикон с открытой камерой синий матовый</t>
+          <t>Чехол книга для Samsung Galaxy M32 (2021) черный с силиконовым основанием Mobi711</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2008965340030</t>
+          <t>2004863458006</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Чехол для iPhone 13 силикон с открытой камерой прозрачный 1,5мм</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2001276671183</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Чехол книга для Honor 50/ Huawei Nova 9 синий с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2008965265623</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Чехол книга для OPPO A54 синий с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2003009773027</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Чехол книга для OPPO A54 черный с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2003009773034</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 голубой с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2003970653786</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 зеленый с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2005454747530</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 золотой с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2005454747561</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 синий с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2002222680099</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Чехол книга для Realme C21 черный с силиконовым основанием Fashion</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2002222680105</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Чехол книга для Samsung Galaxy M32 (2021) темно-синий с силиконовым основанием Mobi711</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2004863548004</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Чехол книга для Samsung Galaxy M52 синий с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2008965265890</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Чехол книга для Samsung Galaxy M52 черный с силиконовым основанием DF</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2008965265968</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
         <v>1</v>
       </c>
     </row>
